--- a/Feladat01/Meres/táblázatok.xlsx
+++ b/Feladat01/Meres/táblázatok.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Méret</t>
   </si>
@@ -27,18 +27,39 @@
   <si>
     <t>Parallel</t>
   </si>
+  <si>
+    <t>Threadpoolos algoritmus ~100x100-as
+ mátrix méret és az felett futtott gyorsabban a naiv algoritmusoknál</t>
+  </si>
+  <si>
+    <t>Paralleles algoritmus ~150x150-es
+ mátrix méret és az felett futtott gyorsabban a naiv algoritmusoknál</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -58,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -66,6 +87,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -219,11 +247,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="925671646"/>
-        <c:axId val="1308923198"/>
+        <c:axId val="1485246402"/>
+        <c:axId val="1747428873"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="925671646"/>
+        <c:axId val="1485246402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,10 +283,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1308923198"/>
+        <c:crossAx val="1747428873"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1308923198"/>
+        <c:axId val="1747428873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -306,7 +334,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925671646"/>
+        <c:crossAx val="1485246402"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -353,20 +381,20 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Munkalap1!$A$21:$D$21</c:f>
+              <c:f>Munkalap1!$A$19:$D$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munkalap1!$A$22:$D$22</c:f>
+              <c:f>Munkalap1!$A$20:$D$20</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2028260952"/>
-        <c:axId val="706491294"/>
+        <c:axId val="383429340"/>
+        <c:axId val="580124118"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2028260952"/>
+        <c:axId val="383429340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,10 +426,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706491294"/>
+        <c:crossAx val="580124118"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="706491294"/>
+        <c:axId val="580124118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +477,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028260952"/>
+        <c:crossAx val="383429340"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -488,7 +516,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -725,14 +753,20 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="E15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -752,47 +786,47 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="2">
+        <v>1057.6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>955.2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>246.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>275.0</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2">
-        <v>1057.6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>955.2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>246.4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>275.0</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
@@ -983,20 +1017,6 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
